--- a/biology/Médecine/1863_en_santé_et_médecine/1863_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1863_en_santé_et_médecine/1863_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1863_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1863_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1863 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1863_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1863_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Évènements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>À la demande de Napoléon III, Louis Pasteur, spécialiste de la fermentation et de la putréfaction, commence ses recherches sur les maladies du vin ; il publiera les résultats de ses travaux dans Études sur le vin en 1866.
-William Banting publie le pamphlet Letter on Corpulence, Addressed to the Public (« Lettre sur la corpulence, à l'intention du public»), considéré comme le premier livre sur les régimes amaigrissants pauvres en glucides[1].</t>
+William Banting publie le pamphlet Letter on Corpulence, Addressed to the Public (« Lettre sur la corpulence, à l'intention du public»), considéré comme le premier livre sur les régimes amaigrissants pauvres en glucides.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1863_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1863_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>15 mai : Jean De Boeck (mort en 1913), psychiatre belge[2],[3].
-12 juillet : Albert Calmette (mort en 1933), médecin militaire et bactériologiste français, inventeur, avec Camille Guérin, du BCG, vaccin contre la tuberculose[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>15 mai : Jean De Boeck (mort en 1913), psychiatre belge,.
+12 juillet : Albert Calmette (mort en 1933), médecin militaire et bactériologiste français, inventeur, avec Camille Guérin, du BCG, vaccin contre la tuberculose.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1863_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1863_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Louis René Villermé (né en 1782), auteur du Tableau de l'état physique et moral des ouvriers employés dans les manufactures[5] qui est à l'origine de la loi de 1841 sur le travail des enfants[6] et de celle de 1850 sur la location de logements insalubres.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Louis René Villermé (né en 1782), auteur du Tableau de l'état physique et moral des ouvriers employés dans les manufactures qui est à l'origine de la loi de 1841 sur le travail des enfants et de celle de 1850 sur la location de logements insalubres.</t>
         </is>
       </c>
     </row>
